--- a/scimagojr/scimagojr_2012.xlsx
+++ b/scimagojr/scimagojr_2012.xlsx
@@ -173,12 +173,12 @@
     <t>Africa</t>
   </si>
   <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Egypt</t>
   </si>
   <si>
@@ -212,12 +212,12 @@
     <t>Serbia</t>
   </si>
   <si>
+    <t>Colombia</t>
+  </si>
+  <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>Slovakia</t>
   </si>
   <si>
@@ -287,12 +287,12 @@
     <t>Iraq</t>
   </si>
   <si>
+    <t>Iceland</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
-    <t>Iceland</t>
-  </si>
-  <si>
     <t>Luxembourg</t>
   </si>
   <si>
@@ -371,12 +371,12 @@
     <t>Uzbekistan</t>
   </si>
   <si>
+    <t>Malta</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -395,30 +395,30 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
     <t>Côte d’Ivoire</t>
   </si>
   <si>
     <t>Libya</t>
   </si>
   <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
     <t>Benin</t>
   </si>
   <si>
-    <t>Bahrain</t>
+    <t>Albania</t>
   </si>
   <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -488,39 +488,39 @@
     <t>Kyrgyzstan</t>
   </si>
   <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
     <t>Niger</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
-    <t>Togo</t>
+    <t>Afghanistan</t>
   </si>
   <si>
     <t>Greenland</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -533,12 +533,12 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>North Korea</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>French Guiana</t>
   </si>
   <si>
@@ -551,12 +551,12 @@
     <t>Haïti</t>
   </si>
   <si>
+    <t>Reunion</t>
+  </si>
+  <si>
     <t>Martinique</t>
   </si>
   <si>
-    <t>Reunion</t>
-  </si>
-  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -572,15 +572,15 @@
     <t>Turkmenistan</t>
   </si>
   <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
     <t>Central African Republic</t>
   </si>
   <si>
@@ -617,24 +617,24 @@
     <t>Maldives</t>
   </si>
   <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
     <t>Chad</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -644,67 +644,73 @@
     <t>Cape Verde</t>
   </si>
   <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
     <t>Palau</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
+    <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
     <t>Samoa</t>
   </si>
   <si>
-    <t>Virgin Islands (U.S.)</t>
-  </si>
-  <si>
     <t>Equatorial Guinea</t>
   </si>
   <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
     <t>American Samoa</t>
   </si>
   <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
     <t>Aruba</t>
   </si>
   <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
     <t>Somalia</t>
   </si>
   <si>
-    <t>Mayotte</t>
+    <t>Virgin Islands (British)</t>
   </si>
   <si>
     <t>Gibraltar</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Virgin Islands (British)</t>
-  </si>
-  <si>
-    <t>Comoros</t>
+    <t>Vatican City State</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
   </si>
   <si>
     <t>Anguilla</t>
@@ -713,40 +719,34 @@
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
-    <t>Vatican City State</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
   </si>
   <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Svalbard and Jan Mayen</t>
-  </si>
-  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
     <t>Tuvalu</t>
   </si>
   <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
+    <t>British Indian Ocean Territory</t>
   </si>
   <si>
     <t>Kiribati</t>
-  </si>
-  <si>
-    <t>British Indian Ocean Territory</t>
   </si>
 </sst>
 </file>
@@ -890,22 +890,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>666841</v>
+        <v>670919</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>552231</v>
+        <v>553888</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>18719480</v>
+        <v>22574881</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8017381</v>
+        <v>9203446</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>28.07</v>
+        <v>33.65</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -919,22 +919,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>416372</v>
+        <v>416228</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>408973</v>
+        <v>409603</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>6209261</v>
+        <v>7325950</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>3475662</v>
+        <v>4068755</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>14.91</v>
+        <v>17.6</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -948,22 +948,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>195995</v>
+        <v>197515</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>152994</v>
+        <v>153497</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5448688</v>
+        <v>6530762</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1221285</v>
+        <v>1379987</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>27.8</v>
+        <v>33.06</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -977,22 +977,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>168248</v>
+        <v>168417</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>150727</v>
+        <v>151131</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4495229</v>
+        <v>5324260</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1075540</v>
+        <v>1195044</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>26.72</v>
+        <v>31.61</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1006,22 +1006,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>135307</v>
+        <v>135229</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>126781</v>
+        <v>127050</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2438296</v>
+        <v>2850182</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>598303</v>
+        <v>665400</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>18.02</v>
+        <v>21.08</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1035,22 +1035,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>117034</v>
+        <v>116843</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>106382</v>
+        <v>106477</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3011759</v>
+        <v>3537812</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>602387</v>
+        <v>664902</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>25.73</v>
+        <v>30.28</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1064,22 +1064,22 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>110205</v>
+        <v>110539</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>102086</v>
+        <v>102475</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1577848</v>
+        <v>1892992</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>538286</v>
+        <v>659428</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>14.32</v>
+        <v>17.13</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1093,22 +1093,22 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>101933</v>
+        <v>102250</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>87234</v>
+        <v>87477</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3011931</v>
+        <v>3598794</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>498304</v>
+        <v>561218</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>29.55</v>
+        <v>35.2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1122,22 +1122,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>99561</v>
+        <v>99487</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>87744</v>
+        <v>87800</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2556869</v>
+        <v>2994424</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>604861</v>
+        <v>672711</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>25.68</v>
+        <v>30.1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1151,22 +1151,22 @@
         <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>86400</v>
+        <v>86310</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>77556</v>
+        <v>77589</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2193282</v>
+        <v>2574005</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>444390</v>
+        <v>494903</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>25.39</v>
+        <v>29.82</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1180,22 +1180,22 @@
         <v>23</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>83162</v>
+        <v>83533</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>69969</v>
+        <v>70241</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2418005</v>
+        <v>2897745</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>481854</v>
+        <v>540639</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>29.08</v>
+        <v>34.69</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1209,22 +1209,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>72164</v>
+        <v>71859</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>68879</v>
+        <v>68938</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1541905</v>
+        <v>1811435</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>275806</v>
+        <v>302077</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>21.37</v>
+        <v>25.21</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1238,22 +1238,22 @@
         <v>26</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>61697</v>
+        <v>61656</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>57892</v>
+        <v>57951</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>991526</v>
+        <v>1182062</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>320784</v>
+        <v>367344</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>16.07</v>
+        <v>19.17</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1267,22 +1267,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>57756</v>
+        <v>57774</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>49737</v>
+        <v>49821</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2095787</v>
+        <v>2485757</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>303894</v>
+        <v>334968</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>36.29</v>
+        <v>43.03</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1296,22 +1296,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>45424</v>
+        <v>45634</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>43424</v>
+        <v>43650</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>556683</v>
+        <v>624710</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>182503</v>
+        <v>203626</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>12.26</v>
+        <v>13.69</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1325,22 +1325,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>43766</v>
+        <v>43692</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>41837</v>
+        <v>41887</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>814121</v>
+        <v>945118</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>128490</v>
+        <v>139137</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>18.6</v>
+        <v>21.63</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1354,22 +1354,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>41535</v>
+        <v>41543</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>37069</v>
+        <v>37129</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1636135</v>
+        <v>1922153</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>199817</v>
+        <v>217645</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>39.39</v>
+        <v>46.27</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1383,22 +1383,22 @@
         <v>33</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>41482</v>
+        <v>41395</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>40167</v>
+        <v>40260</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>639233</v>
+        <v>753356</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>200572</v>
+        <v>225774</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>15.41</v>
+        <v>18.2</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1412,22 +1412,22 @@
         <v>33</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>36941</v>
+        <v>36871</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>34432</v>
+        <v>34455</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>544642</v>
+        <v>659476</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>108915</v>
+        <v>126737</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>14.74</v>
+        <v>17.89</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1441,22 +1441,22 @@
         <v>29</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>36802</v>
+        <v>36830</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>35111</v>
+        <v>35221</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>583867</v>
+        <v>682587</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>143146</v>
+        <v>156515</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>15.87</v>
+        <v>18.53</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1470,22 +1470,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>36032</v>
+        <v>35988</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>31927</v>
+        <v>31952</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1202997</v>
+        <v>1398949</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>162654</v>
+        <v>177992</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>33.39</v>
+        <v>38.87</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1499,22 +1499,22 @@
         <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>31167</v>
+        <v>31125</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>27727</v>
+        <v>27743</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>995376</v>
+        <v>1170201</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>120519</v>
+        <v>130654</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>31.94</v>
+        <v>37.6</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1528,22 +1528,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>23153</v>
+        <v>23132</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>22089</v>
+        <v>22121</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>328888</v>
+        <v>405596</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>79436</v>
+        <v>89572</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>14.2</v>
+        <v>17.53</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1557,22 +1557,22 @@
         <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>23072</v>
+        <v>23100</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>20437</v>
+        <v>20494</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>680390</v>
+        <v>799584</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>79509</v>
+        <v>87048</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>29.49</v>
+        <v>34.61</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1586,22 +1586,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>23006</v>
+        <v>23016</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>20237</v>
+        <v>20301</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>854325</v>
+        <v>999034</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>110439</v>
+        <v>121434</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>37.13</v>
+        <v>43.41</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1618,19 +1618,19 @@
         <v>20860</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>18963</v>
+        <v>19015</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>520602</v>
+        <v>620664</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>84562</v>
+        <v>94104</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>24.96</v>
+        <v>29.75</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1644,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>19945</v>
+        <v>19979</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>17279</v>
+        <v>17313</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>580336</v>
+        <v>665513</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>69332</v>
+        <v>77064</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>29.1</v>
+        <v>33.31</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1673,22 +1673,22 @@
         <v>29</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>19735</v>
+        <v>19692</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>18741</v>
+        <v>18744</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>357090</v>
+        <v>412365</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>70759</v>
+        <v>76210</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>18.09</v>
+        <v>20.94</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1702,22 +1702,22 @@
         <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>19342</v>
+        <v>19325</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>16702</v>
+        <v>16741</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>589272</v>
+        <v>689741</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>78492</v>
+        <v>87291</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>30.47</v>
+        <v>35.69</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1731,22 +1731,22 @@
         <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>19104</v>
+        <v>19135</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>17042</v>
+        <v>17082</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>472899</v>
+        <v>546809</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>59224</v>
+        <v>65621</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>24.75</v>
+        <v>28.58</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1760,22 +1760,22 @@
         <v>26</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>18785</v>
+        <v>18789</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>17306</v>
+        <v>17331</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>344826</v>
+        <v>374297</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>59905</v>
+        <v>68076</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>18.36</v>
+        <v>19.92</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1789,22 +1789,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>18536</v>
+        <v>18660</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>16486</v>
+        <v>16555</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>672212</v>
+        <v>775467</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>61782</v>
+        <v>65896</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>36.27</v>
+        <v>41.56</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1818,22 +1818,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>18423</v>
+        <v>18474</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>16518</v>
+        <v>16589</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>543160</v>
+        <v>634301</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>73783</v>
+        <v>81127</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>29.48</v>
+        <v>34.33</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1847,22 +1847,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>17350</v>
+        <v>17356</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>15423</v>
+        <v>15452</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>540728</v>
+        <v>628142</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>57251</v>
+        <v>62635</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>31.17</v>
+        <v>36.19</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1876,22 +1876,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>16413</v>
+        <v>16495</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>14461</v>
+        <v>14567</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>374311</v>
+        <v>418742</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>74499</v>
+        <v>84870</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>22.81</v>
+        <v>25.39</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1902,25 +1902,25 @@
         <v>52</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>14595</v>
+        <v>14656</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>14013</v>
+        <v>12342</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>165306</v>
+        <v>485453</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>34272</v>
+        <v>57927</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>11.33</v>
+        <v>33.12</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>364</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1931,25 +1931,25 @@
         <v>53</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>14570</v>
+        <v>14630</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>12315</v>
+        <v>14050</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>425085</v>
+        <v>192986</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>51916</v>
+        <v>37451</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>29.18</v>
+        <v>13.19</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>633</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1963,22 +1963,22 @@
         <v>55</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>13366</v>
+        <v>13389</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>12819</v>
+        <v>12896</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>223248</v>
+        <v>269719</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>41500</v>
+        <v>49341</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>16.7</v>
+        <v>20.14</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1992,22 +1992,22 @@
         <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>13098</v>
+        <v>13155</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>11192</v>
+        <v>11226</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>401106</v>
+        <v>457876</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>39543</v>
+        <v>43195</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>30.62</v>
+        <v>34.81</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2021,22 +2021,22 @@
         <v>33</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>12526</v>
+        <v>12463</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>11844</v>
+        <v>11856</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>305859</v>
+        <v>342805</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>41199</v>
+        <v>47172</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>24.42</v>
+        <v>27.51</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2050,22 +2050,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>12434</v>
+        <v>12408</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>11590</v>
+        <v>11603</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>225837</v>
+        <v>270848</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>33725</v>
+        <v>38809</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>18.16</v>
+        <v>21.83</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2079,22 +2079,22 @@
         <v>26</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>12350</v>
+        <v>12323</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>11309</v>
+        <v>11307</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>274378</v>
+        <v>308939</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>47419</v>
+        <v>54064</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>22.22</v>
+        <v>25.07</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2111,19 +2111,19 @@
         <v>10701</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>9800</v>
+        <v>9818</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>237977</v>
+        <v>277119</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>33583</v>
+        <v>36964</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>22.24</v>
+        <v>25.9</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2137,22 +2137,22 @@
         <v>12</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>10187</v>
+        <v>10122</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>9679</v>
+        <v>9675</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>168844</v>
+        <v>195405</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>34820</v>
+        <v>40741</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>16.57</v>
+        <v>19.3</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2166,22 +2166,22 @@
         <v>29</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>9179</v>
+        <v>9209</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>8834</v>
+        <v>8843</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>98401</v>
+        <v>110258</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>25525</v>
+        <v>28715</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>10.72</v>
+        <v>11.97</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2195,22 +2195,22 @@
         <v>26</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>9013</v>
+        <v>8965</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>8425</v>
+        <v>8418</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>213441</v>
+        <v>240812</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>38978</v>
+        <v>44029</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>23.68</v>
+        <v>26.86</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2224,22 +2224,22 @@
         <v>29</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>8222</v>
+        <v>8206</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>7860</v>
+        <v>7864</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>120894</v>
+        <v>138385</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>22657</v>
+        <v>24759</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>14.7</v>
+        <v>16.86</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2250,25 +2250,25 @@
         <v>65</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>6749</v>
+        <v>6781</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>6394</v>
+        <v>6426</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>106447</v>
+        <v>150588</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>15083</v>
+        <v>21430</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>15.77</v>
+        <v>22.21</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>337</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2279,25 +2279,25 @@
         <v>66</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>6721</v>
+        <v>6745</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>6360</v>
+        <v>6397</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>133733</v>
+        <v>121898</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>19038</v>
+        <v>16861</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>19.9</v>
+        <v>18.07</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>356</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2311,22 +2311,22 @@
         <v>29</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>6303</v>
+        <v>6291</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>6075</v>
+        <v>6070</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>100213</v>
+        <v>113397</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>17622</v>
+        <v>18919</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>15.9</v>
+        <v>18.03</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2340,22 +2340,22 @@
         <v>29</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>6150</v>
+        <v>6138</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>5683</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>126675</v>
+        <v>145555</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>17259</v>
+        <v>18706</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>20.6</v>
+        <v>23.71</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2369,22 +2369,22 @@
         <v>51</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>5995</v>
+        <v>5977</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>5619</v>
+        <v>5611</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>75567</v>
+        <v>77359</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>13327</v>
+        <v>16441</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>12.61</v>
+        <v>12.94</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2398,22 +2398,22 @@
         <v>51</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>5681</v>
+        <v>5667</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>72978</v>
+        <v>89083</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>14647</v>
+        <v>16585</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>12.85</v>
+        <v>15.72</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2427,22 +2427,22 @@
         <v>51</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>4384</v>
+        <v>4359</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>4268</v>
+        <v>4265</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>47784</v>
+        <v>58331</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>10212</v>
+        <v>11928</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>10.9</v>
+        <v>13.38</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2456,22 +2456,22 @@
         <v>12</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>4235</v>
+        <v>4282</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>3869</v>
+        <v>3925</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>65063</v>
+        <v>78485</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>12862</v>
+        <v>15884</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>15.36</v>
+        <v>18.33</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2485,22 +2485,22 @@
         <v>29</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>4169</v>
+        <v>4179</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>3967</v>
+        <v>3971</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>66994</v>
+        <v>70882</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>8441</v>
+        <v>9270</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.07</v>
+        <v>16.96</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2514,22 +2514,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>3676</v>
+        <v>3643</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>3429</v>
+        <v>3407</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>55536</v>
+        <v>65522</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>10794</v>
+        <v>12464</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>15.11</v>
+        <v>17.99</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2543,22 +2543,22 @@
         <v>12</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>3462</v>
+        <v>3450</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>50238</v>
+        <v>61331</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>8797</v>
+        <v>10391</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>14.51</v>
+        <v>17.78</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2572,22 +2572,22 @@
         <v>33</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>3290</v>
+        <v>3308</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>2980</v>
+        <v>2986</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>50451</v>
+        <v>62287</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>5443</v>
+        <v>6211</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>15.33</v>
+        <v>18.83</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2601,22 +2601,22 @@
         <v>12</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>3164</v>
+        <v>3152</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>69344</v>
+        <v>83950</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>9312</v>
+        <v>10619</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>21.92</v>
+        <v>26.63</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2630,22 +2630,22 @@
         <v>29</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>3122</v>
+        <v>3110</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>3025</v>
+        <v>3016</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>60118</v>
+        <v>67510</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8046</v>
+        <v>8660</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>19.26</v>
+        <v>21.71</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2659,22 +2659,22 @@
         <v>33</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>34295</v>
+        <v>38888</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4697</v>
+        <v>5628</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>12.7</v>
+        <v>14.39</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2688,22 +2688,22 @@
         <v>29</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>2564</v>
+        <v>2585</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>2391</v>
+        <v>2398</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>85078</v>
+        <v>97096</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>9050</v>
+        <v>9715</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>33.18</v>
+        <v>37.56</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2717,22 +2717,22 @@
         <v>26</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>21272</v>
+        <v>25346</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>3709</v>
+        <v>4099</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>8.86</v>
+        <v>10.55</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2746,22 +2746,22 @@
         <v>51</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>72671</v>
+        <v>80578</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>8767</v>
+        <v>9899</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>34.09</v>
+        <v>37.78</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2775,22 +2775,22 @@
         <v>26</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>29241</v>
+        <v>36009</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>2270</v>
+        <v>2442</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>13.9</v>
+        <v>17.15</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2804,22 +2804,22 @@
         <v>33</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1966</v>
+        <v>1977</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>1757</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>35944</v>
+        <v>43519</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>3394</v>
+        <v>3812</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>18.28</v>
+        <v>22.01</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2833,22 +2833,22 @@
         <v>14</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1868</v>
+        <v>1885</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>50481</v>
+        <v>59449</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>5234</v>
+        <v>5748</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>27.02</v>
+        <v>31.54</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2862,22 +2862,22 @@
         <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>1536</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>40058</v>
+        <v>46806</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3832</v>
+        <v>4393</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>22.22</v>
+        <v>26.02</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>296</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2891,22 +2891,22 @@
         <v>29</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>1724</v>
+        <v>1728</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>40753</v>
+        <v>44922</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>6571</v>
+        <v>6781</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>22.63</v>
+        <v>25</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2920,22 +2920,22 @@
         <v>29</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>1538</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>23329</v>
+        <v>24337</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>2830</v>
+        <v>3147</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>14.7</v>
+        <v>15.31</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2949,22 +2949,22 @@
         <v>33</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>15788</v>
+        <v>19896</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2791</v>
+        <v>3612</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>10.78</v>
+        <v>13.57</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2975,25 +2975,25 @@
         <v>90</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>1441</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>38125</v>
+        <v>79553</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>4340</v>
+        <v>6178</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>26.46</v>
+        <v>55.21</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>288</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3004,25 +3004,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>67905</v>
+        <v>43212</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>5495</v>
+        <v>5098</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>47.22</v>
+        <v>30.03</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>370</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3036,22 +3036,22 @@
         <v>14</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>36840</v>
+        <v>40972</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3110</v>
+        <v>3321</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>25.94</v>
+        <v>28.79</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3065,22 +3065,22 @@
         <v>33</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>20258</v>
+        <v>24480</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1790</v>
+        <v>1993</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>14.78</v>
+        <v>17.89</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3094,22 +3094,22 @@
         <v>33</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>25477</v>
+        <v>30568</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2847</v>
+        <v>3104</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>18.8</v>
+        <v>22.53</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3123,22 +3123,22 @@
         <v>51</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1317</v>
+        <v>1322</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>29741</v>
+        <v>37543</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>7467</v>
+        <v>9589</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>22.58</v>
+        <v>28.4</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3152,22 +3152,22 @@
         <v>51</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>45629</v>
+        <v>37850</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>4956</v>
+        <v>5879</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>37.49</v>
+        <v>31.15</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3181,22 +3181,22 @@
         <v>33</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>18401</v>
+        <v>23148</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1991</v>
+        <v>2243</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>15.22</v>
+        <v>19.13</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3210,22 +3210,22 @@
         <v>29</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1187</v>
+        <v>1197</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>40619</v>
+        <v>45069</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>4949</v>
+        <v>5244</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>34.22</v>
+        <v>37.65</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3239,22 +3239,22 @@
         <v>29</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>39925</v>
+        <v>43629</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>6391</v>
+        <v>6634</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>34.42</v>
+        <v>37.68</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3268,22 +3268,22 @@
         <v>12</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>39406</v>
+        <v>30483</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>2332</v>
+        <v>2636</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>34.45</v>
+        <v>26.62</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3300,19 +3300,19 @@
         <v>1144</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>50593</v>
+        <v>42616</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>5121</v>
+        <v>5737</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>44.22</v>
+        <v>37.25</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3326,22 +3326,22 @@
         <v>26</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>44224</v>
+        <v>35527</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2969</v>
+        <v>3313</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>39.56</v>
+        <v>32.06</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3355,22 +3355,22 @@
         <v>51</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>26058</v>
+        <v>31236</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4177</v>
+        <v>4845</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>24.94</v>
+        <v>29.95</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3387,19 +3387,19 @@
         <v>1025</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>18169</v>
+        <v>20112</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>2667</v>
+        <v>2929</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>17.73</v>
+        <v>19.62</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3413,22 +3413,22 @@
         <v>26</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>36606</v>
+        <v>43654</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1161</v>
+        <v>1321</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>37.54</v>
+        <v>44.45</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3442,22 +3442,22 @@
         <v>12</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>19471</v>
+        <v>23497</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>2710</v>
+        <v>2874</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>20.22</v>
+        <v>24.15</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3471,22 +3471,22 @@
         <v>12</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>34718</v>
+        <v>25040</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>2264</v>
+        <v>2610</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>36.13</v>
+        <v>25.98</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3500,22 +3500,22 @@
         <v>51</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>16295</v>
+        <v>19888</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>2950</v>
+        <v>3537</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>17.52</v>
+        <v>21.25</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3529,22 +3529,22 @@
         <v>29</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>873</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>7986</v>
+        <v>9625</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>721</v>
+        <v>820</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>8.68</v>
+        <v>10.47</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3558,22 +3558,22 @@
         <v>12</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>9995</v>
+        <v>12108</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>2304</v>
+        <v>2592</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>11.7</v>
+        <v>14.26</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3587,22 +3587,22 @@
         <v>29</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>742</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>9850</v>
+        <v>11943</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>963</v>
+        <v>1057</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>12.78</v>
+        <v>15.39</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3616,22 +3616,22 @@
         <v>26</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>19065</v>
+        <v>19443</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>2020</v>
+        <v>2259</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>26.41</v>
+        <v>27.08</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3645,22 +3645,22 @@
         <v>26</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>19144</v>
+        <v>23592</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>2056</v>
+        <v>2380</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>28.53</v>
+        <v>35.21</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3674,22 +3674,22 @@
         <v>51</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>11564</v>
+        <v>13598</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1166</v>
+        <v>1297</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>17.96</v>
+        <v>21.28</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3703,22 +3703,22 @@
         <v>51</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>28502</v>
+        <v>18288</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>956</v>
+        <v>1085</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>46.34</v>
+        <v>30.08</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3732,22 +3732,22 @@
         <v>33</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>8768</v>
+        <v>10640</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>14.96</v>
+        <v>18.25</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3761,22 +3761,22 @@
         <v>12</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>4218</v>
+        <v>5228</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>894</v>
+        <v>1181</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>7.88</v>
+        <v>9.74</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3787,25 +3787,25 @@
         <v>118</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>9381</v>
+        <v>9902</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>1420</v>
+        <v>851</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>18.04</v>
+        <v>18.51</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3816,25 +3816,25 @@
         <v>119</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>8075</v>
+        <v>11440</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>754</v>
+        <v>1611</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>15.71</v>
+        <v>22.17</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3848,22 +3848,22 @@
         <v>26</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>457</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>38104</v>
+        <v>28163</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1749</v>
+        <v>1924</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>78.24</v>
+        <v>58.31</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3877,22 +3877,22 @@
         <v>51</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>11044</v>
+        <v>13314</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>1523</v>
+        <v>1782</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>23.01</v>
+        <v>27.8</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3906,22 +3906,22 @@
         <v>33</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>423</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>6250</v>
+        <v>7750</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>689</v>
+        <v>809</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>13.74</v>
+        <v>16.85</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3935,22 +3935,22 @@
         <v>51</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>18355</v>
+        <v>23212</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>1743</v>
+        <v>2023</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>41.62</v>
+        <v>52.28</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3964,22 +3964,22 @@
         <v>29</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>4907</v>
+        <v>5639</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>11.66</v>
+        <v>13.14</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3993,22 +3993,22 @@
         <v>26</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>4385</v>
+        <v>5446</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>10.75</v>
+        <v>13.09</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4019,25 +4019,25 @@
         <v>126</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>7895</v>
+        <v>4657</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>588</v>
+        <v>417</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>19.35</v>
+        <v>11.47</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4048,25 +4048,25 @@
         <v>127</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>3779</v>
+        <v>9485</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>385</v>
+        <v>732</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>9.45</v>
+        <v>23.36</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4083,19 +4083,19 @@
         <v>393</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>6409</v>
+        <v>7806</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>659</v>
+        <v>801</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>16.31</v>
+        <v>19.86</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4112,19 +4112,19 @@
         <v>369</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>4634</v>
+        <v>5728</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>12.56</v>
+        <v>15.52</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4135,25 +4135,25 @@
         <v>130</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>367</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>6292</v>
+        <v>4573</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>1089</v>
+        <v>316</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>17.14</v>
+        <v>12.46</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4164,25 +4164,25 @@
         <v>131</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3697</v>
+        <v>7694</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>290</v>
+        <v>1271</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>10.21</v>
+        <v>21.2</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4193,25 +4193,25 @@
         <v>132</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>9290</v>
+        <v>3807</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>1070</v>
+        <v>288</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>26.32</v>
+        <v>10.85</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>151</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4222,25 +4222,25 @@
         <v>133</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3260</v>
+        <v>10616</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>249</v>
+        <v>1154</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>9.29</v>
+        <v>30.51</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4254,22 +4254,22 @@
         <v>12</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E118" s="0" t="n">
         <v>309</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>5345</v>
+        <v>6141</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>15.72</v>
+        <v>18.22</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4286,19 +4286,19 @@
         <v>315</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>7771</v>
+        <v>9151</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>24.67</v>
+        <v>29.05</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4312,22 +4312,22 @@
         <v>33</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>296</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>4434</v>
+        <v>5356</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>14.26</v>
+        <v>17.28</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4341,22 +4341,22 @@
         <v>29</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E121" s="0" t="n">
         <v>282</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>3679</v>
+        <v>4384</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>12.56</v>
+        <v>15.12</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4370,22 +4370,22 @@
         <v>12</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>226</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>9087</v>
+        <v>10679</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>923</v>
+        <v>1009</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>34.03</v>
+        <v>39.7</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4405,16 +4405,16 @@
         <v>244</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>5783</v>
+        <v>6925</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>21.91</v>
+        <v>26.23</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4431,19 +4431,19 @@
         <v>257</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2969</v>
+        <v>3631</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>11.55</v>
+        <v>14.13</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4457,22 +4457,22 @@
         <v>51</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E125" s="0" t="n">
         <v>233</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>6443</v>
+        <v>7465</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>610</v>
+        <v>671</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>25.47</v>
+        <v>29.98</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4486,22 +4486,22 @@
         <v>26</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>27455</v>
+        <v>15024</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>110.26</v>
+        <v>61.07</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4515,22 +4515,22 @@
         <v>51</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E127" s="0" t="n">
         <v>193</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2652</v>
+        <v>3326</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>11.95</v>
+        <v>15.12</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4544,22 +4544,22 @@
         <v>26</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>190</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>6473</v>
+        <v>7293</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>29.56</v>
+        <v>33.45</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4573,22 +4573,22 @@
         <v>12</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>194</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>5605</v>
+        <v>6750</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>632</v>
+        <v>698</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>25.59</v>
+        <v>30.96</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4602,22 +4602,22 @@
         <v>51</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>27055</v>
+        <v>14670</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>726</v>
+        <v>744</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>124.11</v>
+        <v>68.55</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4637,16 +4637,16 @@
         <v>178</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>3406</v>
+        <v>4064</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>16.78</v>
+        <v>20.02</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4660,22 +4660,22 @@
         <v>23</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>4129</v>
+        <v>5047</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>21.17</v>
+        <v>25.62</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4689,22 +4689,22 @@
         <v>51</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" s="0" t="n">
         <v>168</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3894</v>
+        <v>4649</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>21.05</v>
+        <v>25.27</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4718,22 +4718,22 @@
         <v>23</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>4028</v>
+        <v>4846</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>592</v>
+        <v>686</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>25.33</v>
+        <v>30.67</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4747,22 +4747,22 @@
         <v>23</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>4357</v>
+        <v>5114</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>28.11</v>
+        <v>32.78</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4776,22 +4776,22 @@
         <v>26</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>2841</v>
+        <v>3181</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>18.81</v>
+        <v>21.35</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4811,16 +4811,16 @@
         <v>130</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2815</v>
+        <v>3385</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>19.55</v>
+        <v>23.51</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4834,22 +4834,22 @@
         <v>51</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>5175</v>
+        <v>5965</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>36.44</v>
+        <v>42.61</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4863,22 +4863,22 @@
         <v>51</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>6496</v>
+        <v>7433</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>48.12</v>
+        <v>55.89</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4898,16 +4898,16 @@
         <v>109</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1973</v>
+        <v>2325</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>15.91</v>
+        <v>18.75</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4918,25 +4918,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>119</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>1715</v>
+        <v>4033</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>14.41</v>
+        <v>33.89</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4950,22 +4950,22 @@
         <v>26</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>109</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>2681</v>
+        <v>3190</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>22.72</v>
+        <v>27.26</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4985,16 +4985,16 @@
         <v>112</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1380</v>
+        <v>1839</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>11.79</v>
+        <v>15.72</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5005,25 +5005,25 @@
         <v>160</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>3200</v>
+        <v>4631</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>181</v>
+        <v>499</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>27.35</v>
+        <v>39.92</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5034,25 +5034,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>116</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>3834</v>
+        <v>2021</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>33.05</v>
+        <v>17.42</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5072,16 +5072,16 @@
         <v>100</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1762</v>
+        <v>2280</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>15.59</v>
+        <v>20.18</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5095,22 +5095,22 @@
         <v>51</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>105</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>2730</v>
+        <v>3209</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>24.38</v>
+        <v>28.91</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5121,25 +5121,25 @@
         <v>164</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D148" s="0" t="n">
         <v>109</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>4549</v>
+        <v>1104</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>41.73</v>
+        <v>10.13</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5150,25 +5150,25 @@
         <v>165</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D149" s="0" t="n">
         <v>109</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>895</v>
+        <v>5407</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>8.21</v>
+        <v>49.61</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>63</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5179,25 +5179,25 @@
         <v>166</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D150" s="0" t="n">
         <v>107</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>4401</v>
+        <v>1369</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>41.13</v>
+        <v>12.79</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5208,25 +5208,25 @@
         <v>167</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1166</v>
+        <v>5393</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>106</v>
+        <v>420</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>11.43</v>
+        <v>50.88</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5240,22 +5240,22 @@
         <v>26</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>2347</v>
+        <v>2849</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>24.2</v>
+        <v>29.07</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5275,16 +5275,16 @@
         <v>86</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>1537</v>
+        <v>1839</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>16.18</v>
+        <v>19.36</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5298,22 +5298,22 @@
         <v>26</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E154" s="0" t="n">
         <v>83</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1295</v>
+        <v>1535</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>14.55</v>
+        <v>17.44</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5333,16 +5333,16 @@
         <v>82</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>1872</v>
+        <v>2227</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>21.52</v>
+        <v>25.6</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5353,25 +5353,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>625</v>
+        <v>1866</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>7.18</v>
+        <v>21.7</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5382,25 +5382,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>86</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>1592</v>
+        <v>727</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>18.51</v>
+        <v>8.45</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5414,22 +5414,22 @@
         <v>26</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E158" s="0" t="n">
         <v>73</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2066</v>
+        <v>2446</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>26.49</v>
+        <v>31.77</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5449,16 +5449,16 @@
         <v>68</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>1101</v>
+        <v>1314</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>15.08</v>
+        <v>18</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5478,16 +5478,16 @@
         <v>54</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1781</v>
+        <v>2051</v>
       </c>
       <c r="G160" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>32.05</v>
+      </c>
+      <c r="I160" s="0" t="n">
         <v>92</v>
-      </c>
-      <c r="H160" s="0" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="I160" s="0" t="n">
-        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5507,16 +5507,16 @@
         <v>54</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1328</v>
+        <v>1535</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>21.77</v>
+        <v>25.16</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5527,25 +5527,25 @@
         <v>178</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>16140</v>
+        <v>1567</v>
       </c>
       <c r="G162" s="0" t="n">
         <v>24</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>293.45</v>
+        <v>29.02</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5556,25 +5556,25 @@
         <v>179</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>1313</v>
+        <v>3337</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>24.31</v>
+        <v>62.96</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5594,16 +5594,16 @@
         <v>45</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1655</v>
+        <v>1981</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>33.1</v>
+        <v>39.62</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5617,22 +5617,22 @@
         <v>23</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E165" s="0" t="n">
         <v>44</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1315</v>
+        <v>1576</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>26.3</v>
+        <v>32.16</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5652,16 +5652,16 @@
         <v>44</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>590</v>
+        <v>721</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>12.04</v>
+        <v>14.71</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5675,22 +5675,22 @@
         <v>14</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>2115</v>
+        <v>2639</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>44.06</v>
+        <v>53.86</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5710,16 +5710,16 @@
         <v>46</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>10.83</v>
+        <v>12.67</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5730,25 +5730,25 @@
         <v>185</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="D169" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>730</v>
+        <v>940</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>16.22</v>
+        <v>20.89</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5759,25 +5759,25 @@
         <v>186</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D170" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>740</v>
+        <v>2805</v>
       </c>
       <c r="G170" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>62.33</v>
+      </c>
+      <c r="I170" s="0" t="n">
         <v>113</v>
-      </c>
-      <c r="H170" s="0" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="I170" s="0" t="n">
-        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5788,25 +5788,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>2279</v>
+        <v>871</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>50.64</v>
+        <v>19.36</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5826,16 +5826,16 @@
         <v>38</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>2072</v>
+        <v>2530</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>48.19</v>
+        <v>58.84</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5855,16 +5855,16 @@
         <v>34</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>972</v>
+        <v>1154</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>24.3</v>
+        <v>28.85</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5878,22 +5878,22 @@
         <v>51</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E174" s="0" t="n">
         <v>36</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>745</v>
+        <v>890</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>19.61</v>
+        <v>22.82</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5913,16 +5913,16 @@
         <v>35</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1096</v>
+        <v>1261</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>29.62</v>
+        <v>34.08</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5942,16 +5942,16 @@
         <v>30</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>863</v>
+        <v>1025</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>23.97</v>
+        <v>28.47</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5971,16 +5971,16 @@
         <v>33</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>7.75</v>
+        <v>9.69</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6000,16 +6000,16 @@
         <v>34</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>801</v>
+        <v>997</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>22.89</v>
+        <v>28.49</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6029,16 +6029,16 @@
         <v>26</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>519</v>
+        <v>650</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>15.73</v>
+        <v>19.7</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6058,16 +6058,16 @@
         <v>29</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>698</v>
+        <v>822</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>21.81</v>
+        <v>25.69</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6087,16 +6087,16 @@
         <v>28</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>593</v>
+        <v>727</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>20.45</v>
+        <v>25.07</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6116,16 +6116,16 @@
         <v>26</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>1200</v>
+        <v>1463</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>44.44</v>
+        <v>54.19</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6145,16 +6145,16 @@
         <v>22</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>521</v>
+        <v>651</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>20.04</v>
+        <v>25.04</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6165,25 +6165,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>25</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>457</v>
+        <v>1920</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>18.28</v>
+        <v>76.8</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6203,16 +6203,16 @@
         <v>22</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>543</v>
+        <v>651</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>21.72</v>
+        <v>26.04</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6223,25 +6223,25 @@
         <v>202</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D186" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>1516</v>
+        <v>270</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>63.17</v>
+        <v>11.25</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6252,25 +6252,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D187" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E187" s="0" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>9.17</v>
+        <v>18.58</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6281,25 +6281,25 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>24</v>
       </c>
       <c r="E188" s="0" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>360</v>
+        <v>775</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>15</v>
+        <v>32.29</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6310,25 +6310,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>28.43</v>
+        <v>23.67</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6348,16 +6348,16 @@
         <v>19</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>10.3</v>
+        <v>12.61</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6377,16 +6377,16 @@
         <v>20</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>467</v>
+        <v>566</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>23.35</v>
+        <v>28.3</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6406,16 +6406,16 @@
         <v>16</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>15.81</v>
+        <v>19.31</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6426,25 +6426,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>267</v>
+        <v>502</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>17.8</v>
+        <v>33.47</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6455,25 +6455,25 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>15</v>
       </c>
       <c r="E194" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>22.67</v>
+        <v>20.8</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6493,16 +6493,16 @@
         <v>7</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>29</v>
+        <v>34.29</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6513,25 +6513,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>11.08</v>
+        <v>20</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6542,7 +6542,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>13</v>
@@ -6551,16 +6551,16 @@
         <v>12</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>16.54</v>
+        <v>30.77</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6571,7 +6571,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>13</v>
@@ -6580,16 +6580,16 @@
         <v>12</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>26.23</v>
+        <v>27.85</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6606,19 +6606,19 @@
         <v>13</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>24.31</v>
+        <v>13.77</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6629,25 +6629,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D200" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>794</v>
+        <v>325</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>66.17</v>
+        <v>27.08</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6658,25 +6658,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>229</v>
+        <v>987</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>19.08</v>
+        <v>82.25</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6696,16 +6696,16 @@
         <v>11</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>24.73</v>
+        <v>29</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6722,16 +6722,16 @@
         <v>9</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>9.44</v>
+        <v>32.67</v>
       </c>
       <c r="I203" s="0" t="n">
         <v>31</v>
@@ -6745,25 +6745,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>27.44</v>
+        <v>21.25</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6774,25 +6774,25 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>8</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>17.38</v>
+        <v>12.63</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6812,16 +6812,16 @@
         <v>7</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="G206" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>20.25</v>
+        <v>24.13</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6838,19 +6838,19 @@
         <v>7</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>15.71</v>
+        <v>8.71</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6867,19 +6867,19 @@
         <v>7</v>
       </c>
       <c r="E208" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>7.29</v>
+        <v>19.57</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6890,7 +6890,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D209" s="0" t="n">
         <v>6</v>
@@ -6899,16 +6899,16 @@
         <v>6</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>35.33</v>
+        <v>42.5</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6919,25 +6919,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>22.5</v>
+        <v>44.33</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6957,16 +6957,16 @@
         <v>6</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>21.17</v>
+        <v>25.33</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6977,25 +6977,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>37.33</v>
+        <v>13</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7006,25 +7006,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7035,7 +7035,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>4</v>
@@ -7044,16 +7044,16 @@
         <v>4</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>35.25</v>
+        <v>24.25</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7064,7 +7064,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>4</v>
@@ -7073,16 +7073,16 @@
         <v>4</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>29</v>
+        <v>60.5</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7093,7 +7093,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>4</v>
@@ -7102,16 +7102,16 @@
         <v>4</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>21</v>
+        <v>39.75</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7122,7 +7122,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>4</v>
@@ -7131,16 +7131,16 @@
         <v>4</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>49.25</v>
+        <v>34.25</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7151,25 +7151,25 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>11</v>
+        <v>50.33</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7180,7 +7180,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>3</v>
@@ -7189,16 +7189,16 @@
         <v>3</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>40.67</v>
+        <v>4.33</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7209,25 +7209,25 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E220" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>3.67</v>
+        <v>18.5</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7247,16 +7247,16 @@
         <v>2</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7276,16 +7276,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7296,7 +7296,7 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>1</v>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="224">
@@ -7334,13 +7334,13 @@
         <v>1</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I224" s="0" t="n">
         <v>12</v>
@@ -7354,7 +7354,7 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1</v>
@@ -7363,16 +7363,16 @@
         <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7383,7 +7383,7 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>1</v>
@@ -7392,16 +7392,16 @@
         <v>1</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7412,7 +7412,7 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>1</v>
@@ -7421,16 +7421,16 @@
         <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
